--- a/sampling_event/original_datasheet/MarineGEO Sampling Event Fieldsheet V2.xlsx
+++ b/sampling_event/original_datasheet/MarineGEO Sampling Event Fieldsheet V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\Documents\repositories\protocols\sampling_event\original_datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\home\repositories\protocols\sampling_event\original_datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439AA61D-1BBD-4CBE-BDA0-75374BF90D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA6048B-4686-4206-9B11-0D21C6E7B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15555" xr2:uid="{021D2B0D-93E4-49FC-A7D2-39F0C95EF462}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{021D2B0D-93E4-49FC-A7D2-39F0C95EF462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,50 +238,50 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,24 +699,24 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -724,165 +724,165 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="55.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="39.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
@@ -897,19 +897,19 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
@@ -924,11 +924,11 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="21.6" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -971,10 +971,10 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
@@ -989,19 +989,19 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1016,11 +1016,11 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="21.6" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -1063,10 +1063,10 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1081,38 +1081,38 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="10" t="s">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="28.7" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17" ht="21.6" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -1155,10 +1155,10 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1173,38 +1173,38 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="10" t="s">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" ht="21" customHeight="1">
       <c r="A24" s="6" t="s">
@@ -1263,36 +1263,6 @@
     <row r="40" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A24:Q25"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:O23"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A4:Q6"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="A16:Q17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A20:Q21"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:G8"/>
@@ -1309,11 +1279,41 @@
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:Q6"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="A16:Q17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="A24:Q25"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14555511.V2</oddFooter>
+    <oddFooter>&amp;Lhttps://doi.org/10.25573/serc.14555511.V3</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
